--- a/SchedulingData/dynamic16/pso/scheduling2_16.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,154 +462,154 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>221.86</v>
+        <v>215.58</v>
       </c>
       <c r="D2" t="n">
-        <v>283.1</v>
+        <v>260.98</v>
       </c>
       <c r="E2" t="n">
-        <v>9.4</v>
+        <v>11.572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>283.1</v>
+        <v>232.84</v>
       </c>
       <c r="D3" t="n">
-        <v>327.4</v>
+        <v>280.14</v>
       </c>
       <c r="E3" t="n">
-        <v>6.1</v>
+        <v>12.156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>229.5</v>
+        <v>231.3</v>
       </c>
       <c r="D4" t="n">
-        <v>298.4</v>
+        <v>286.48</v>
       </c>
       <c r="E4" t="n">
-        <v>11.78</v>
+        <v>11.492</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>222.8</v>
+        <v>280.14</v>
       </c>
       <c r="D5" t="n">
-        <v>264.78</v>
+        <v>346.24</v>
       </c>
       <c r="E5" t="n">
-        <v>16.532</v>
+        <v>7.676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="D6" t="n">
-        <v>315.46</v>
+        <v>317.08</v>
       </c>
       <c r="E6" t="n">
-        <v>11.144</v>
+        <v>13.392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>201</v>
+        <v>346.24</v>
       </c>
       <c r="D7" t="n">
-        <v>252.4</v>
+        <v>383.94</v>
       </c>
       <c r="E7" t="n">
-        <v>15.76</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>264.78</v>
+        <v>260.98</v>
       </c>
       <c r="D8" t="n">
-        <v>322.88</v>
+        <v>335.1</v>
       </c>
       <c r="E8" t="n">
-        <v>11.852</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>230.1</v>
+        <v>317.08</v>
       </c>
       <c r="D9" t="n">
-        <v>296.24</v>
+        <v>380.1</v>
       </c>
       <c r="E9" t="n">
-        <v>12.016</v>
+        <v>10.18</v>
       </c>
     </row>
     <row r="10">
@@ -618,36 +618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>327.4</v>
+        <v>226.56</v>
       </c>
       <c r="D10" t="n">
-        <v>372.5</v>
+        <v>269.8</v>
       </c>
       <c r="E10" t="n">
-        <v>2.72</v>
+        <v>12.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>322.88</v>
+        <v>269.8</v>
       </c>
       <c r="D11" t="n">
-        <v>375.22</v>
+        <v>330.8</v>
       </c>
       <c r="E11" t="n">
-        <v>8.728</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="12">
@@ -656,150 +656,150 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>315.46</v>
+        <v>335.1</v>
       </c>
       <c r="D12" t="n">
-        <v>367.66</v>
+        <v>406.12</v>
       </c>
       <c r="E12" t="n">
-        <v>7.544</v>
+        <v>2.788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>252.4</v>
+        <v>406.12</v>
       </c>
       <c r="D13" t="n">
-        <v>316.66</v>
+        <v>467.54</v>
       </c>
       <c r="E13" t="n">
-        <v>11.444</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>298.4</v>
+        <v>467.54</v>
       </c>
       <c r="D14" t="n">
-        <v>342.1</v>
+        <v>515.54</v>
       </c>
       <c r="E14" t="n">
-        <v>8.539999999999999</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>367.66</v>
+        <v>203.24</v>
       </c>
       <c r="D15" t="n">
-        <v>415.06</v>
+        <v>265.22</v>
       </c>
       <c r="E15" t="n">
-        <v>5.424</v>
+        <v>13.688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>415.06</v>
+        <v>286.48</v>
       </c>
       <c r="D16" t="n">
-        <v>465.24</v>
+        <v>350.94</v>
       </c>
       <c r="E16" t="n">
-        <v>1.536</v>
+        <v>6.676</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>465.24</v>
+        <v>383.94</v>
       </c>
       <c r="D17" t="n">
-        <v>548.77</v>
+        <v>440.54</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>1.496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>316.66</v>
+        <v>440.54</v>
       </c>
       <c r="D18" t="n">
-        <v>366.46</v>
+        <v>529.05</v>
       </c>
       <c r="E18" t="n">
-        <v>8.084</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>375.22</v>
+        <v>529.05</v>
       </c>
       <c r="D19" t="n">
-        <v>427.82</v>
+        <v>568.15</v>
       </c>
       <c r="E19" t="n">
-        <v>6.088</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="20">
@@ -808,55 +808,55 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>366.46</v>
+        <v>380.1</v>
       </c>
       <c r="D20" t="n">
-        <v>425</v>
+        <v>428.9</v>
       </c>
       <c r="E20" t="n">
-        <v>4.34</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>296.24</v>
+        <v>330.8</v>
       </c>
       <c r="D21" t="n">
-        <v>338.84</v>
+        <v>395.26</v>
       </c>
       <c r="E21" t="n">
-        <v>9.375999999999999</v>
+        <v>3.924</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>372.5</v>
+        <v>515.54</v>
       </c>
       <c r="D22" t="n">
-        <v>425.44</v>
+        <v>578.54</v>
       </c>
       <c r="E22" t="n">
-        <v>0.036</v>
+        <v>21.72</v>
       </c>
     </row>
     <row r="23">
@@ -865,55 +865,55 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>425.44</v>
+        <v>395.26</v>
       </c>
       <c r="D23" t="n">
-        <v>521.77</v>
+        <v>449.36</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>342.1</v>
+        <v>449.36</v>
       </c>
       <c r="D24" t="n">
-        <v>412.82</v>
+        <v>554.51</v>
       </c>
       <c r="E24" t="n">
-        <v>4.068</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>412.82</v>
+        <v>578.54</v>
       </c>
       <c r="D25" t="n">
-        <v>478</v>
+        <v>625.84</v>
       </c>
       <c r="E25" t="n">
-        <v>0.18</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="26">
@@ -922,169 +922,169 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>478</v>
+        <v>568.15</v>
       </c>
       <c r="D26" t="n">
-        <v>564.24</v>
+        <v>607.01</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>24.524</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>338.84</v>
+        <v>607.01</v>
       </c>
       <c r="D27" t="n">
-        <v>390.74</v>
+        <v>663.37</v>
       </c>
       <c r="E27" t="n">
-        <v>6.296</v>
+        <v>21.488</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>427.82</v>
+        <v>663.37</v>
       </c>
       <c r="D28" t="n">
-        <v>483.02</v>
+        <v>719.35</v>
       </c>
       <c r="E28" t="n">
-        <v>2.188</v>
+        <v>18.98</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>564.24</v>
+        <v>554.51</v>
       </c>
       <c r="D29" t="n">
-        <v>642.36</v>
+        <v>618.97</v>
       </c>
       <c r="E29" t="n">
-        <v>26.348</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>521.77</v>
+        <v>428.9</v>
       </c>
       <c r="D30" t="n">
-        <v>563.75</v>
+        <v>513</v>
       </c>
       <c r="E30" t="n">
-        <v>27.492</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>425</v>
+        <v>618.97</v>
       </c>
       <c r="D31" t="n">
-        <v>516.46</v>
+        <v>685.27</v>
       </c>
       <c r="E31" t="n">
-        <v>0.284</v>
+        <v>21.724</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516.46</v>
+        <v>265.22</v>
       </c>
       <c r="D32" t="n">
-        <v>617.1900000000001</v>
+        <v>311.08</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>10.232</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>563.75</v>
+        <v>350.94</v>
       </c>
       <c r="D33" t="n">
-        <v>611.05</v>
+        <v>423.62</v>
       </c>
       <c r="E33" t="n">
-        <v>23.892</v>
+        <v>2.028</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>548.77</v>
+        <v>311.08</v>
       </c>
       <c r="D34" t="n">
-        <v>602.17</v>
+        <v>356.18</v>
       </c>
       <c r="E34" t="n">
-        <v>26.36</v>
+        <v>6.852</v>
       </c>
     </row>
     <row r="35">
@@ -1093,93 +1093,93 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>602.17</v>
+        <v>625.84</v>
       </c>
       <c r="D35" t="n">
-        <v>660.9299999999999</v>
+        <v>666.78</v>
       </c>
       <c r="E35" t="n">
-        <v>23.604</v>
+        <v>16.636</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>611.05</v>
+        <v>513</v>
       </c>
       <c r="D36" t="n">
-        <v>669.87</v>
+        <v>605</v>
       </c>
       <c r="E36" t="n">
-        <v>21.12</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>642.36</v>
+        <v>605</v>
       </c>
       <c r="D37" t="n">
-        <v>703.96</v>
+        <v>681.92</v>
       </c>
       <c r="E37" t="n">
-        <v>22.328</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>483.02</v>
+        <v>356.18</v>
       </c>
       <c r="D38" t="n">
-        <v>570.14</v>
+        <v>429.92</v>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>3.108</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>570.14</v>
+        <v>719.35</v>
       </c>
       <c r="D39" t="n">
-        <v>641.54</v>
+        <v>786.85</v>
       </c>
       <c r="E39" t="n">
-        <v>25.52</v>
+        <v>16.34</v>
       </c>
     </row>
     <row r="40">
@@ -1188,93 +1188,93 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>617.1900000000001</v>
+        <v>681.92</v>
       </c>
       <c r="D40" t="n">
-        <v>707.49</v>
+        <v>735.3200000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>26.1</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>641.54</v>
+        <v>429.92</v>
       </c>
       <c r="D41" t="n">
-        <v>694.76</v>
+        <v>515.5</v>
       </c>
       <c r="E41" t="n">
-        <v>22.308</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>694.76</v>
+        <v>515.5</v>
       </c>
       <c r="D42" t="n">
-        <v>783.6799999999999</v>
+        <v>606.72</v>
       </c>
       <c r="E42" t="n">
-        <v>17.996</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>390.74</v>
+        <v>666.78</v>
       </c>
       <c r="D43" t="n">
-        <v>485.24</v>
+        <v>711.6799999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>2.916</v>
+        <v>13.776</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>669.87</v>
+        <v>606.72</v>
       </c>
       <c r="D44" t="n">
-        <v>727.33</v>
+        <v>663.3200000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>17.984</v>
+        <v>21.988</v>
       </c>
     </row>
     <row r="45">
@@ -1283,93 +1283,55 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>660.9299999999999</v>
+        <v>711.6799999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>707.4299999999999</v>
+        <v>765.4</v>
       </c>
       <c r="E45" t="n">
-        <v>21.084</v>
+        <v>11.004</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>707.4299999999999</v>
+        <v>423.62</v>
       </c>
       <c r="D46" t="n">
-        <v>754.73</v>
+        <v>501.26</v>
       </c>
       <c r="E46" t="n">
-        <v>17.484</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>707.49</v>
+        <v>501.26</v>
       </c>
       <c r="D47" t="n">
-        <v>752.49</v>
+        <v>566.14</v>
       </c>
       <c r="E47" t="n">
-        <v>23.24</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>5</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>pond31</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>485.24</v>
-      </c>
-      <c r="D48" t="n">
-        <v>523.74</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.196</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>5</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>depot1</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>523.74</v>
-      </c>
-      <c r="D49" t="n">
-        <v>595.25</v>
-      </c>
-      <c r="E49" t="n">
-        <v>30</v>
+        <v>26.192</v>
       </c>
     </row>
   </sheetData>
